--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -297,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -315,6 +315,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -322,11 +323,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -611,7 +616,7 @@
   <dimension ref="A1:AR3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +626,7 @@
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" customWidth="1"/>
     <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
@@ -632,7 +637,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
+      <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -645,7 +650,7 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -669,20 +674,20 @@
       <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
       <c r="AB1" s="4" t="s">
         <v>11</v>
       </c>
@@ -701,22 +706,22 @@
       </c>
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
-      <c r="AL1" s="5" t="s">
+      <c r="AL1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AM1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AO1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>20</v>
       </c>
       <c r="AR1" s="4" t="s">
@@ -724,19 +729,19 @@
       </c>
     </row>
     <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -755,10 +760,10 @@
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AB2" s="4"/>
@@ -771,28 +776,28 @@
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
       <c r="AR2" s="4"/>
     </row>
     <row r="3" spans="1:44" ht="226.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="6"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="1" t="s">
         <v>27</v>
       </c>
@@ -829,8 +834,8 @@
       <c r="Y3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
       <c r="AB3" s="1" t="s">
         <v>38</v>
       </c>
@@ -861,16 +866,29 @@
       <c r="AK3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
       <c r="AR3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AG1:AH2"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AL1:AL3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AR1:AR3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="AA2:AA3"/>
@@ -887,19 +905,6 @@
     <mergeCell ref="M1:AA1"/>
     <mergeCell ref="AB1:AD2"/>
     <mergeCell ref="AE1:AF2"/>
-    <mergeCell ref="AG1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Регион</t>
   </si>
@@ -173,9 +173,6 @@
     <t>премия по итогам работы за год</t>
   </si>
   <si>
-    <t>Основное место работы / Совместительство</t>
-  </si>
-  <si>
     <t>Полное наименование</t>
   </si>
   <si>
@@ -192,6 +189,21 @@
   </si>
   <si>
     <t>Тип должности</t>
+  </si>
+  <si>
+    <t>OID медицинской организации</t>
+  </si>
+  <si>
+    <t>OID структурного подразделения</t>
+  </si>
+  <si>
+    <t>Год</t>
+  </si>
+  <si>
+    <t>Условия занятости</t>
+  </si>
+  <si>
+    <t>Занятая ставка</t>
   </si>
 </sst>
 </file>
@@ -311,6 +323,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -331,7 +344,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -613,298 +625,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="27.42578125" customWidth="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="48" max="48" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="4" t="s">
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4" t="s">
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AR1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AS1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AT1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AU1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AV1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6" t="s">
+    <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="6" t="s">
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="4"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="5"/>
     </row>
-    <row r="3" spans="1:44" ht="226.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="1" t="s">
+    <row r="3" spans="1:48" ht="226.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="1" t="s">
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="4"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G1:G3"/>
+  <mergeCells count="33">
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="I1:I3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
-    <mergeCell ref="AG1:AH2"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AL1:AL3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="AK1:AL2"/>
+    <mergeCell ref="AM1:AO2"/>
+    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="AR1:AR3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AN1:AN3"/>
-    <mergeCell ref="AO1:AO3"/>
-    <mergeCell ref="AP1:AP3"/>
+    <mergeCell ref="AS1:AS3"/>
+    <mergeCell ref="AT1:AT3"/>
+    <mergeCell ref="AU1:AU3"/>
     <mergeCell ref="AQ1:AQ3"/>
-    <mergeCell ref="AM1:AM3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
     <mergeCell ref="L1:L3"/>
-    <mergeCell ref="M1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AF2"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="Q1:AE1"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="AI1:AJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -928,13 +965,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -960,16 +997,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -993,10 +1030,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
